--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2502,28 +2502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>668.7091363941806</v>
+        <v>717.3209466483011</v>
       </c>
       <c r="AB2" t="n">
-        <v>914.9573417795146</v>
+        <v>981.4701651709122</v>
       </c>
       <c r="AC2" t="n">
-        <v>827.6350972307713</v>
+        <v>887.8000301090278</v>
       </c>
       <c r="AD2" t="n">
-        <v>668709.1363941806</v>
+        <v>717320.9466483011</v>
       </c>
       <c r="AE2" t="n">
-        <v>914957.3417795147</v>
+        <v>981470.1651709122</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.039318412097899e-06</v>
+        <v>3.773272985367319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.452083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>827635.0972307713</v>
+        <v>887800.0301090279</v>
       </c>
     </row>
     <row r="3">
@@ -2608,28 +2608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.0045944678242</v>
+        <v>271.310544349163</v>
       </c>
       <c r="AB3" t="n">
-        <v>337.9625832243497</v>
+        <v>371.2190561549863</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.7079086149831</v>
+        <v>335.7904304447712</v>
       </c>
       <c r="AD3" t="n">
-        <v>247004.5944678242</v>
+        <v>271310.544349163</v>
       </c>
       <c r="AE3" t="n">
-        <v>337962.5832243497</v>
+        <v>371219.0561549863</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.758566390248964e-06</v>
+        <v>6.954331868874999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.042708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>305707.9086149831</v>
+        <v>335790.4304447712</v>
       </c>
     </row>
     <row r="4">
@@ -2714,28 +2714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>193.0772634934919</v>
+        <v>217.4684647208479</v>
       </c>
       <c r="AB4" t="n">
-        <v>264.1768298793717</v>
+        <v>297.5499474624769</v>
       </c>
       <c r="AC4" t="n">
-        <v>238.9641640102711</v>
+        <v>269.15219809072</v>
       </c>
       <c r="AD4" t="n">
-        <v>193077.2634934919</v>
+        <v>217468.464720848</v>
       </c>
       <c r="AE4" t="n">
-        <v>264176.8298793717</v>
+        <v>297549.9474624769</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.298192887591416e-06</v>
+        <v>7.952782170961966e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.535416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>238964.1640102711</v>
+        <v>269152.19809072</v>
       </c>
     </row>
     <row r="5">
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.9773764876395</v>
+        <v>179.1730666098686</v>
       </c>
       <c r="AB5" t="n">
-        <v>228.4658130322326</v>
+        <v>245.1524942933335</v>
       </c>
       <c r="AC5" t="n">
-        <v>206.6613564902846</v>
+        <v>221.7554843117356</v>
       </c>
       <c r="AD5" t="n">
-        <v>166977.3764876395</v>
+        <v>179173.0666098685</v>
       </c>
       <c r="AE5" t="n">
-        <v>228465.8130322326</v>
+        <v>245152.4942933335</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.696749143536152e-06</v>
+        <v>8.690215592238418e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.235416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>206661.3564902846</v>
+        <v>221755.4843117356</v>
       </c>
     </row>
     <row r="6">
@@ -2926,28 +2926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>156.7631127098153</v>
+        <v>168.9588028320444</v>
       </c>
       <c r="AB6" t="n">
-        <v>214.4902067099059</v>
+        <v>231.1768879710069</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.0195624204697</v>
+        <v>209.1136902419207</v>
       </c>
       <c r="AD6" t="n">
-        <v>156763.1127098153</v>
+        <v>168958.8028320444</v>
       </c>
       <c r="AE6" t="n">
-        <v>214490.2067099059</v>
+        <v>231176.8879710069</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.830962816841114e-06</v>
+        <v>8.938546026928878e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.145833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>194019.5624204697</v>
+        <v>209113.6902419207</v>
       </c>
     </row>
     <row r="7">
@@ -3032,28 +3032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>149.9173543985723</v>
+        <v>162.1130445208013</v>
       </c>
       <c r="AB7" t="n">
-        <v>205.1235381749263</v>
+        <v>221.8102194360272</v>
       </c>
       <c r="AC7" t="n">
-        <v>185.5468355842637</v>
+        <v>200.6409634057147</v>
       </c>
       <c r="AD7" t="n">
-        <v>149917.3543985723</v>
+        <v>162113.0445208013</v>
       </c>
       <c r="AE7" t="n">
-        <v>205123.5381749263</v>
+        <v>221810.2194360272</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.942856172737751e-06</v>
+        <v>9.145578030632771e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.073958333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>185546.8355842637</v>
+        <v>200640.9634057147</v>
       </c>
     </row>
   </sheetData>
@@ -3329,28 +3329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.0647823137502</v>
+        <v>440.3559187119019</v>
       </c>
       <c r="AB2" t="n">
-        <v>554.2275053586544</v>
+        <v>602.5143951136605</v>
       </c>
       <c r="AC2" t="n">
-        <v>501.332810110413</v>
+        <v>545.0112668782766</v>
       </c>
       <c r="AD2" t="n">
-        <v>405064.7823137502</v>
+        <v>440355.9187119019</v>
       </c>
       <c r="AE2" t="n">
-        <v>554227.5053586544</v>
+        <v>602514.3951136605</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.689614244734647e-06</v>
+        <v>5.126819845082006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.844791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>501332.810110413</v>
+        <v>545011.2668782766</v>
       </c>
     </row>
     <row r="3">
@@ -3435,28 +3435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.5867153897436</v>
+        <v>209.1141396551777</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.9279315041687</v>
+        <v>286.1191913408228</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.6934061115749</v>
+        <v>258.812377290146</v>
       </c>
       <c r="AD3" t="n">
-        <v>185586.7153897436</v>
+        <v>209114.1396551777</v>
       </c>
       <c r="AE3" t="n">
-        <v>253927.9315041687</v>
+        <v>286119.1913408228</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.29143029195794e-06</v>
+        <v>8.180128443202329e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.663541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>229693.4061115749</v>
+        <v>258812.377290146</v>
       </c>
     </row>
     <row r="4">
@@ -3541,28 +3541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.8342989200884</v>
+        <v>166.5981005613565</v>
       </c>
       <c r="AB4" t="n">
-        <v>211.8511185895441</v>
+        <v>227.9468709774196</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.6323451663309</v>
+        <v>206.191941536843</v>
       </c>
       <c r="AD4" t="n">
-        <v>154834.2989200884</v>
+        <v>166598.1005613566</v>
       </c>
       <c r="AE4" t="n">
-        <v>211851.1185895441</v>
+        <v>227946.8709774196</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.811032011440679e-06</v>
+        <v>9.170569511916129e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.267708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>191632.3451663309</v>
+        <v>206191.941536843</v>
       </c>
     </row>
     <row r="5">
@@ -3647,28 +3647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>139.3715311686145</v>
+        <v>151.1353328098826</v>
       </c>
       <c r="AB5" t="n">
-        <v>190.6942775828199</v>
+        <v>206.7900299706954</v>
       </c>
       <c r="AC5" t="n">
-        <v>172.4946833714689</v>
+        <v>187.0542797419811</v>
       </c>
       <c r="AD5" t="n">
-        <v>139371.5311686145</v>
+        <v>151135.3328098826</v>
       </c>
       <c r="AE5" t="n">
-        <v>190694.2775828199</v>
+        <v>206790.0299706954</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.078906845039827e-06</v>
+        <v>9.681180286521705e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.094791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>172494.6833714689</v>
+        <v>187054.2797419811</v>
       </c>
     </row>
     <row r="6">
@@ -3753,28 +3753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>140.2111438385357</v>
+        <v>151.9749454798039</v>
       </c>
       <c r="AB6" t="n">
-        <v>191.8430726789025</v>
+        <v>207.9388250667779</v>
       </c>
       <c r="AC6" t="n">
-        <v>173.5338390759258</v>
+        <v>188.0934354464379</v>
       </c>
       <c r="AD6" t="n">
-        <v>140211.1438385358</v>
+        <v>151974.9454798039</v>
       </c>
       <c r="AE6" t="n">
-        <v>191843.0726789025</v>
+        <v>207938.8250667779</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.068191851695861e-06</v>
+        <v>9.660755855537481e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.102083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>173533.8390759258</v>
+        <v>188093.4354464379</v>
       </c>
     </row>
   </sheetData>
@@ -4050,28 +4050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.7708517447053</v>
+        <v>155.6977367270867</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.3994250273791</v>
+        <v>213.0325122892663</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.8006027090363</v>
+        <v>192.7009883094484</v>
       </c>
       <c r="AD2" t="n">
-        <v>134770.8517447053</v>
+        <v>155697.7367270867</v>
       </c>
       <c r="AE2" t="n">
-        <v>184399.4250273791</v>
+        <v>213032.5122892663</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.797367819554252e-06</v>
+        <v>1.021713797041541e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>166800.6027090363</v>
+        <v>192700.9883094484</v>
       </c>
     </row>
     <row r="3">
@@ -4156,28 +4156,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.1700267349942</v>
+        <v>138.9263195167835</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.685443872393</v>
+        <v>190.0851193594333</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.2544120362021</v>
+        <v>171.9436623539632</v>
       </c>
       <c r="AD3" t="n">
-        <v>118170.0267349942</v>
+        <v>138926.3195167835</v>
       </c>
       <c r="AE3" t="n">
-        <v>161685.443872393</v>
+        <v>190085.1193594333</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.221061214457316e-06</v>
+        <v>1.111949401975426e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>146254.4120362021</v>
+        <v>171943.6623539632</v>
       </c>
     </row>
   </sheetData>
@@ -4453,28 +4453,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.1643348762643</v>
+        <v>229.0226756226441</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.4513824229989</v>
+        <v>313.3589285541161</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.3991803111451</v>
+        <v>283.4523922150226</v>
       </c>
       <c r="AD2" t="n">
-        <v>207164.3348762643</v>
+        <v>229022.6756226441</v>
       </c>
       <c r="AE2" t="n">
-        <v>283451.3824229989</v>
+        <v>313358.9285541161</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.925102627979119e-06</v>
+        <v>7.969315367053704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.274999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>256399.1803111451</v>
+        <v>283452.3922150226</v>
       </c>
     </row>
     <row r="3">
@@ -4559,28 +4559,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.0829018644483</v>
+        <v>139.0547874191996</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.2486769496911</v>
+        <v>190.2608948111227</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.5231891847244</v>
+        <v>172.1026620432458</v>
       </c>
       <c r="AD3" t="n">
-        <v>128082.9018644483</v>
+        <v>139054.7874191996</v>
       </c>
       <c r="AE3" t="n">
-        <v>175248.6769496911</v>
+        <v>190260.8948111227</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.135466116897489e-06</v>
+        <v>1.042677171053895e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.267708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>158523.1891847244</v>
+        <v>172102.6620432458</v>
       </c>
     </row>
     <row r="4">
@@ -4665,28 +4665,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.0004505281495</v>
+        <v>135.9723360829008</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.0311310432138</v>
+        <v>186.0433489046454</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.7081599401971</v>
+        <v>168.2876327987185</v>
       </c>
       <c r="AD4" t="n">
-        <v>125000.4505281495</v>
+        <v>135972.3360829008</v>
       </c>
       <c r="AE4" t="n">
-        <v>171031.1310432138</v>
+        <v>186043.3489046454</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.225522444636789e-06</v>
+        <v>1.060961719117361e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.211458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>154708.1599401971</v>
+        <v>168287.6327987185</v>
       </c>
     </row>
   </sheetData>
@@ -4962,28 +4962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.3708452076304</v>
+        <v>134.4638218016171</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.4872360985966</v>
+        <v>183.979333114041</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.5523139166047</v>
+        <v>166.4206037783044</v>
       </c>
       <c r="AD2" t="n">
-        <v>114370.8452076304</v>
+        <v>134463.8218016171</v>
       </c>
       <c r="AE2" t="n">
-        <v>156487.2360985966</v>
+        <v>183979.333114041</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.085659464286253e-06</v>
+        <v>1.132477027540725e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.582291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>141552.3139166047</v>
+        <v>166420.6037783044</v>
       </c>
     </row>
     <row r="3">
@@ -5068,28 +5068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.794967127955</v>
+        <v>134.8879437219417</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.0675384209229</v>
+        <v>184.5596354363673</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.0772329997478</v>
+        <v>166.9455228614475</v>
       </c>
       <c r="AD3" t="n">
-        <v>114794.967127955</v>
+        <v>134887.9437219417</v>
       </c>
       <c r="AE3" t="n">
-        <v>157067.5384209229</v>
+        <v>184559.6354363673</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.098077162269757e-06</v>
+        <v>1.135242206334156e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.573958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>142077.2329997479</v>
+        <v>166945.5228614475</v>
       </c>
     </row>
   </sheetData>
@@ -5365,28 +5365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>464.2451667926203</v>
+        <v>499.7916064293751</v>
       </c>
       <c r="AB2" t="n">
-        <v>635.2007182569428</v>
+        <v>683.8369251661896</v>
       </c>
       <c r="AC2" t="n">
-        <v>574.5780532163067</v>
+        <v>618.5724887994803</v>
       </c>
       <c r="AD2" t="n">
-        <v>464245.1667926203</v>
+        <v>499791.6064293751</v>
       </c>
       <c r="AE2" t="n">
-        <v>635200.7182569428</v>
+        <v>683836.9251661897</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.516342575156117e-06</v>
+        <v>4.757809118913995e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.190625</v>
       </c>
       <c r="AH2" t="n">
-        <v>574578.0532163067</v>
+        <v>618572.4887994803</v>
       </c>
     </row>
     <row r="3">
@@ -5471,28 +5471,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.9244405032205</v>
+        <v>220.6789011584039</v>
       </c>
       <c r="AB3" t="n">
-        <v>269.4407071895508</v>
+        <v>301.9426082307983</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.7256642578665</v>
+        <v>273.1256294804523</v>
       </c>
       <c r="AD3" t="n">
-        <v>196924.4405032205</v>
+        <v>220678.9011584039</v>
       </c>
       <c r="AE3" t="n">
-        <v>269440.7071895509</v>
+        <v>301942.6082307983</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.154320814865466e-06</v>
+        <v>7.854838864551205e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>243725.6642578665</v>
+        <v>273125.6294804523</v>
       </c>
     </row>
     <row r="4">
@@ -5577,28 +5577,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.3416886841387</v>
+        <v>188.9255571387298</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.2277928180309</v>
+        <v>258.4962820844315</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.6369297842445</v>
+        <v>233.8257597241793</v>
       </c>
       <c r="AD4" t="n">
-        <v>165341.6886841387</v>
+        <v>188925.5571387298</v>
       </c>
       <c r="AE4" t="n">
-        <v>226227.7928180309</v>
+        <v>258496.2820844315</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.653401657260472e-06</v>
+        <v>8.798482789057358e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.347916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>204636.9297842445</v>
+        <v>233825.7597241793</v>
       </c>
     </row>
     <row r="5">
@@ -5683,28 +5683,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>142.783113361355</v>
+        <v>154.6604331974978</v>
       </c>
       <c r="AB5" t="n">
-        <v>195.3621548473093</v>
+        <v>211.6132278374814</v>
       </c>
       <c r="AC5" t="n">
-        <v>176.7170649812438</v>
+        <v>191.4171583737633</v>
       </c>
       <c r="AD5" t="n">
-        <v>142783.1133613551</v>
+        <v>154660.4331974978</v>
       </c>
       <c r="AE5" t="n">
-        <v>195362.1548473093</v>
+        <v>211613.2278374814</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.041658734532702e-06</v>
+        <v>9.532585164849378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.089583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>176717.0649812438</v>
+        <v>191417.1583737633</v>
       </c>
     </row>
     <row r="6">
@@ -5789,28 +5789,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>141.7173104843145</v>
+        <v>153.5946303204573</v>
       </c>
       <c r="AB6" t="n">
-        <v>193.9038763310387</v>
+        <v>210.1549493212108</v>
       </c>
       <c r="AC6" t="n">
-        <v>175.3979625198589</v>
+        <v>190.0980559123784</v>
       </c>
       <c r="AD6" t="n">
-        <v>141717.3104843145</v>
+        <v>153594.6303204573</v>
       </c>
       <c r="AE6" t="n">
-        <v>193903.8763310387</v>
+        <v>210154.9493212109</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.052427035597263e-06</v>
+        <v>9.552945477275042e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>175397.9625198589</v>
+        <v>190098.0559123784</v>
       </c>
     </row>
   </sheetData>
@@ -6086,28 +6086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.8062603806436</v>
+        <v>132.4054383502408</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.3465021137032</v>
+        <v>181.1629620664005</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.6158885786899</v>
+        <v>163.8730232306482</v>
       </c>
       <c r="AD2" t="n">
-        <v>112806.2603806436</v>
+        <v>132405.4383502408</v>
       </c>
       <c r="AE2" t="n">
-        <v>154346.5021137032</v>
+        <v>181162.9620664005</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.959001805257342e-06</v>
+        <v>1.136884264291903e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.759375</v>
       </c>
       <c r="AH2" t="n">
-        <v>139615.8885786899</v>
+        <v>163873.0232306482</v>
       </c>
     </row>
   </sheetData>
@@ -6383,28 +6383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.0667976550976</v>
+        <v>320.1673288004969</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.4092129281167</v>
+        <v>438.0670640505102</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.053666992537</v>
+        <v>396.2585582885147</v>
       </c>
       <c r="AD2" t="n">
-        <v>286066.7976550976</v>
+        <v>320167.3288004969</v>
       </c>
       <c r="AE2" t="n">
-        <v>391409.2129281167</v>
+        <v>438067.0640505102</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.246623384249589e-06</v>
+        <v>6.363336965007712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.988541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>354053.666992537</v>
+        <v>396258.5582885147</v>
       </c>
     </row>
     <row r="3">
@@ -6489,28 +6489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.8495960631855</v>
+        <v>172.469585195907</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.0308282311634</v>
+        <v>235.980495286028</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.4629737474142</v>
+        <v>213.458848016703</v>
       </c>
       <c r="AD3" t="n">
-        <v>149849.5960631855</v>
+        <v>172469.585195907</v>
       </c>
       <c r="AE3" t="n">
-        <v>205030.8282311634</v>
+        <v>235980.495286028</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.8228217197926e-06</v>
+        <v>9.452663919714761e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.358333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>185462.9737474142</v>
+        <v>213458.848016703</v>
       </c>
     </row>
     <row r="4">
@@ -6595,28 +6595,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.7880305508581</v>
+        <v>144.183410726066</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.6864415940614</v>
+        <v>197.2781034784656</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.3465426068975</v>
+        <v>178.4501581640939</v>
       </c>
       <c r="AD4" t="n">
-        <v>132788.0305508581</v>
+        <v>144183.410726066</v>
       </c>
       <c r="AE4" t="n">
-        <v>181686.4415940614</v>
+        <v>197278.1034784656</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.140798004313213e-06</v>
+        <v>1.007589304296384e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.151041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>164346.5426068975</v>
+        <v>178450.1581640939</v>
       </c>
     </row>
     <row r="5">
@@ -6701,28 +6701,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.5578043495694</v>
+        <v>143.9531845247773</v>
       </c>
       <c r="AB5" t="n">
-        <v>181.3714359485952</v>
+        <v>196.9630978329994</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.0616006581213</v>
+        <v>178.1652162153177</v>
       </c>
       <c r="AD5" t="n">
-        <v>132557.8043495694</v>
+        <v>143953.1845247773</v>
       </c>
       <c r="AE5" t="n">
-        <v>181371.4359485952</v>
+        <v>196963.0978329994</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.158679311266695e-06</v>
+        <v>1.011094015747418e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.139583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>164061.6006581213</v>
+        <v>178165.2162153177</v>
       </c>
     </row>
   </sheetData>
@@ -6998,28 +6998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.0104495606865</v>
+        <v>398.9480813587002</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.0551560965791</v>
+        <v>545.8583652621542</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.5214710235227</v>
+        <v>493.7624089985607</v>
       </c>
       <c r="AD2" t="n">
-        <v>364010.4495606865</v>
+        <v>398948.0813587002</v>
       </c>
       <c r="AE2" t="n">
-        <v>498055.1560965792</v>
+        <v>545858.3652621541</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.870100080910977e-06</v>
+        <v>5.51835026902855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.529166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>450521.4710235227</v>
+        <v>493762.4089985607</v>
       </c>
     </row>
     <row r="3">
@@ -7104,28 +7104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.4691132144004</v>
+        <v>196.7608677464092</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.348093616994</v>
+        <v>269.216899727361</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.6959246823983</v>
+        <v>243.5232166657523</v>
       </c>
       <c r="AD3" t="n">
-        <v>173469.1132144004</v>
+        <v>196760.8677464092</v>
       </c>
       <c r="AE3" t="n">
-        <v>237348.093616994</v>
+        <v>269216.8997273609</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.45452817377547e-06</v>
+        <v>8.564735045178925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>214695.9246823983</v>
+        <v>243523.2166657523</v>
       </c>
     </row>
     <row r="4">
@@ -7210,28 +7210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.73631084974</v>
+        <v>157.3822776242955</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.4028499367936</v>
+        <v>215.3373754615254</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.3721218025402</v>
+        <v>194.7858785754437</v>
       </c>
       <c r="AD4" t="n">
-        <v>145736.31084974</v>
+        <v>157382.2776242954</v>
       </c>
       <c r="AE4" t="n">
-        <v>199402.8499367936</v>
+        <v>215337.3754615254</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.947376719969375e-06</v>
+        <v>9.512336463529547e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.207291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>180372.1218025402</v>
+        <v>194785.8785754437</v>
       </c>
     </row>
     <row r="5">
@@ -7316,28 +7316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.0282892859985</v>
+        <v>148.6742560605539</v>
       </c>
       <c r="AB5" t="n">
-        <v>187.4881506624904</v>
+        <v>203.4226761872223</v>
       </c>
       <c r="AC5" t="n">
-        <v>169.5945447045873</v>
+        <v>184.0083014774908</v>
       </c>
       <c r="AD5" t="n">
-        <v>137028.2892859984</v>
+        <v>148674.2560605539</v>
       </c>
       <c r="AE5" t="n">
-        <v>187488.1506624904</v>
+        <v>203422.6761872223</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.104448389560077e-06</v>
+        <v>9.81433864662676e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>169594.5447045873</v>
+        <v>184008.3014774908</v>
       </c>
     </row>
   </sheetData>
@@ -7613,28 +7613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>580.1430307331835</v>
+        <v>628.4291116360901</v>
       </c>
       <c r="AB2" t="n">
-        <v>793.7772887533173</v>
+        <v>859.8444348762191</v>
       </c>
       <c r="AC2" t="n">
-        <v>718.0202983881218</v>
+        <v>777.7820888108757</v>
       </c>
       <c r="AD2" t="n">
-        <v>580143.0307331835</v>
+        <v>628429.1116360901</v>
       </c>
       <c r="AE2" t="n">
-        <v>793777.2887533173</v>
+        <v>859844.4348762191</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.196201201642578e-06</v>
+        <v>4.091356264652075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.974999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>718020.2983881218</v>
+        <v>777782.0888108758</v>
       </c>
     </row>
     <row r="3">
@@ -7719,28 +7719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.689610500798</v>
+        <v>244.8753213795367</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.9572612255246</v>
+        <v>335.0492178480574</v>
       </c>
       <c r="AC3" t="n">
-        <v>273.1388840139276</v>
+        <v>303.0725907412692</v>
       </c>
       <c r="AD3" t="n">
-        <v>220689.6105007979</v>
+        <v>244875.3213795367</v>
       </c>
       <c r="AE3" t="n">
-        <v>301957.2612255246</v>
+        <v>335049.2178480574</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.89478306171445e-06</v>
+        <v>7.255685438605615e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.933333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>273138.8840139276</v>
+        <v>303072.5907412692</v>
       </c>
     </row>
     <row r="4">
@@ -7825,28 +7825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.7621621652513</v>
+        <v>213.9478730439901</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.6409619901265</v>
+        <v>292.7329186126593</v>
       </c>
       <c r="AC4" t="n">
-        <v>234.8611929862435</v>
+        <v>264.794899713585</v>
       </c>
       <c r="AD4" t="n">
-        <v>189762.1621652513</v>
+        <v>213947.8730439901</v>
       </c>
       <c r="AE4" t="n">
-        <v>259640.9619901265</v>
+        <v>292732.9186126593</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.320788745086298e-06</v>
+        <v>8.04930171571958e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.544791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>234861.1929862435</v>
+        <v>264794.899713585</v>
       </c>
     </row>
     <row r="5">
@@ -7931,28 +7931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>159.3651437686287</v>
+        <v>171.4580887165491</v>
       </c>
       <c r="AB5" t="n">
-        <v>218.0504203980813</v>
+        <v>234.596521178896</v>
       </c>
       <c r="AC5" t="n">
-        <v>197.239994311038</v>
+        <v>212.2069584559354</v>
       </c>
       <c r="AD5" t="n">
-        <v>159365.1437686287</v>
+        <v>171458.0887165491</v>
       </c>
       <c r="AE5" t="n">
-        <v>218050.4203980812</v>
+        <v>234596.521178896</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.797968048690594e-06</v>
+        <v>8.938250565990485e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.192708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>197239.994311038</v>
+        <v>212206.9584559354</v>
       </c>
     </row>
     <row r="6">
@@ -8037,28 +8037,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>148.2703123072095</v>
+        <v>160.3632572551299</v>
       </c>
       <c r="AB6" t="n">
-        <v>202.869982523156</v>
+        <v>219.4160833039707</v>
       </c>
       <c r="AC6" t="n">
-        <v>183.5083561210124</v>
+        <v>198.4753202659098</v>
       </c>
       <c r="AD6" t="n">
-        <v>148270.3123072094</v>
+        <v>160363.2572551299</v>
       </c>
       <c r="AE6" t="n">
-        <v>202869.982523156</v>
+        <v>219416.0833039708</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.954429922044977e-06</v>
+        <v>9.229727168976078e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.091666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>183508.3561210124</v>
+        <v>198475.3202659098</v>
       </c>
     </row>
     <row r="7">
@@ -8143,28 +8143,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>147.4763192995858</v>
+        <v>159.5692642475063</v>
       </c>
       <c r="AB7" t="n">
-        <v>201.7836062616266</v>
+        <v>218.3297070424414</v>
       </c>
       <c r="AC7" t="n">
-        <v>182.5256620851444</v>
+        <v>197.4926262300417</v>
       </c>
       <c r="AD7" t="n">
-        <v>147476.3192995858</v>
+        <v>159569.2642475063</v>
       </c>
       <c r="AE7" t="n">
-        <v>201783.6062616266</v>
+        <v>218329.7070424414</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.976193415707053e-06</v>
+        <v>9.270270906985351e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.078125</v>
       </c>
       <c r="AH7" t="n">
-        <v>182525.6620851444</v>
+        <v>197492.6262300417</v>
       </c>
     </row>
   </sheetData>
@@ -8440,28 +8440,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.9658152636376</v>
+        <v>253.1215308958348</v>
       </c>
       <c r="AB2" t="n">
-        <v>316.0176179361928</v>
+        <v>346.3320455053392</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.8573400139687</v>
+        <v>313.2786011624917</v>
       </c>
       <c r="AD2" t="n">
-        <v>230965.8152636376</v>
+        <v>253121.5308958348</v>
       </c>
       <c r="AE2" t="n">
-        <v>316017.6179361928</v>
+        <v>346332.0455053392</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.683643064344337e-06</v>
+        <v>7.383852779111031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.498958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>285857.3400139686</v>
+        <v>313278.6011624917</v>
       </c>
     </row>
     <row r="3">
@@ -8546,28 +8546,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.0497983461674</v>
+        <v>165.120173123793</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.7270450088405</v>
+        <v>225.9247054557892</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.0471305378852</v>
+        <v>204.3627686544693</v>
       </c>
       <c r="AD3" t="n">
-        <v>143049.7983461674</v>
+        <v>165120.173123793</v>
       </c>
       <c r="AE3" t="n">
-        <v>195727.0450088405</v>
+        <v>225924.7054557892</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.851336439092229e-06</v>
+        <v>9.724491060202587e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.415625</v>
       </c>
       <c r="AH3" t="n">
-        <v>177047.1305378852</v>
+        <v>204362.7686544693</v>
       </c>
     </row>
     <row r="4">
@@ -8652,28 +8652,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.3677649706941</v>
+        <v>138.488337968354</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.2701951020439</v>
+        <v>189.4858536824901</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.6380922713084</v>
+        <v>171.4015897521526</v>
       </c>
       <c r="AD4" t="n">
-        <v>127367.7649706941</v>
+        <v>138488.337968354</v>
       </c>
       <c r="AE4" t="n">
-        <v>174270.1951020439</v>
+        <v>189485.8536824901</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.211507801548526e-06</v>
+        <v>1.044645360358015e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.180208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>157638.0922713084</v>
+        <v>171401.5897521526</v>
       </c>
     </row>
   </sheetData>
@@ -8949,28 +8949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.975351526885</v>
+        <v>176.2658495406288</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.0441129889649</v>
+        <v>241.1747116418365</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.8069204511404</v>
+        <v>218.1573356536433</v>
       </c>
       <c r="AD2" t="n">
-        <v>154975.351526885</v>
+        <v>176265.8495406288</v>
       </c>
       <c r="AE2" t="n">
-        <v>212044.1129889649</v>
+        <v>241174.7116418365</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.458401201838685e-06</v>
+        <v>9.327254133370557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.871875000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>191806.9204511404</v>
+        <v>218157.3356536433</v>
       </c>
     </row>
     <row r="3">
@@ -9055,28 +9055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.8424060342454</v>
+        <v>130.4877445496684</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.9736670097948</v>
+        <v>178.539088805779</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.3242503689124</v>
+        <v>161.4995687513904</v>
       </c>
       <c r="AD3" t="n">
-        <v>119842.4060342454</v>
+        <v>130487.7445496684</v>
       </c>
       <c r="AE3" t="n">
-        <v>163973.6670097949</v>
+        <v>178539.088805779</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.247205458482758e-06</v>
+        <v>1.097748196844504e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.289583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>148324.2503689124</v>
+        <v>161499.5687513904</v>
       </c>
     </row>
   </sheetData>
@@ -15821,28 +15821,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.7879447754675</v>
+        <v>139.3187151812552</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.530906595988</v>
+        <v>190.622012418838</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.0191849840718</v>
+        <v>172.4293150933127</v>
       </c>
       <c r="AD2" t="n">
-        <v>118787.9447754674</v>
+        <v>139318.7151812552</v>
       </c>
       <c r="AE2" t="n">
-        <v>162530.906595988</v>
+        <v>190622.012418838</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.092000001530104e-06</v>
+        <v>1.106927358343717e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.507291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>147019.1849840718</v>
+        <v>172429.3150933126</v>
       </c>
     </row>
     <row r="3">
@@ -15927,28 +15927,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.429177037743</v>
+        <v>136.7893552429385</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.3035365157467</v>
+        <v>187.16123056375</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.0998305746454</v>
+        <v>169.2988254012353</v>
       </c>
       <c r="AD3" t="n">
-        <v>116429.177037743</v>
+        <v>136789.3552429385</v>
       </c>
       <c r="AE3" t="n">
-        <v>159303.5365157467</v>
+        <v>187161.23056375</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.172912471255468e-06</v>
+        <v>1.124516562260302e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.452083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>144099.8305746454</v>
+        <v>169298.8254012353</v>
       </c>
     </row>
   </sheetData>
@@ -16224,28 +16224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.3989677029071</v>
+        <v>141.3384710389674</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.4716674723967</v>
+        <v>193.3855314886983</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.4884065768391</v>
+        <v>174.9290877817697</v>
       </c>
       <c r="AD2" t="n">
-        <v>122398.9677029071</v>
+        <v>141338.4710389674</v>
       </c>
       <c r="AE2" t="n">
-        <v>167471.6674723967</v>
+        <v>193385.5314886983</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.689011202039566e-06</v>
+        <v>1.115293957631281e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.0875</v>
       </c>
       <c r="AH2" t="n">
-        <v>151488.4065768391</v>
+        <v>174929.0877817697</v>
       </c>
     </row>
   </sheetData>
@@ -16521,28 +16521,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.1566217145977</v>
+        <v>351.203223825456</v>
       </c>
       <c r="AB2" t="n">
-        <v>448.9983670783108</v>
+        <v>480.5317448307138</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.1465930975221</v>
+        <v>434.6704695346095</v>
       </c>
       <c r="AD2" t="n">
-        <v>328156.6217145977</v>
+        <v>351203.2238254559</v>
       </c>
       <c r="AE2" t="n">
-        <v>448998.3670783108</v>
+        <v>480531.7448307138</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.057545501805506e-06</v>
+        <v>5.933406130988537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.241666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>406146.5930975221</v>
+        <v>434670.4695346095</v>
       </c>
     </row>
     <row r="3">
@@ -16627,28 +16627,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.6847999963511</v>
+        <v>183.5607203980657</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.8560322679739</v>
+        <v>251.1558757759656</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.8732811182609</v>
+        <v>227.185911491466</v>
       </c>
       <c r="AD3" t="n">
-        <v>160684.7999963511</v>
+        <v>183560.7203980657</v>
       </c>
       <c r="AE3" t="n">
-        <v>219856.0322679739</v>
+        <v>251155.8757759656</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.646865993383637e-06</v>
+        <v>9.017606821793257e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.448958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>198873.2811182609</v>
+        <v>227185.911491466</v>
       </c>
     </row>
     <row r="4">
@@ -16733,28 +16733,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.3697812442309</v>
+        <v>148.8931270539353</v>
       </c>
       <c r="AB4" t="n">
-        <v>187.9553950253057</v>
+        <v>203.7221451362733</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.0171959211972</v>
+        <v>184.2791895303518</v>
       </c>
       <c r="AD4" t="n">
-        <v>137369.7812442309</v>
+        <v>148893.1270539353</v>
       </c>
       <c r="AE4" t="n">
-        <v>187955.3950253057</v>
+        <v>203722.1451362733</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.079086078662268e-06</v>
+        <v>9.85636369472098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>170017.1959211972</v>
+        <v>184279.1895303518</v>
       </c>
     </row>
     <row r="5">
@@ -16839,28 +16839,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>134.5855095300327</v>
+        <v>146.1088553397371</v>
       </c>
       <c r="AB5" t="n">
-        <v>184.1458316325428</v>
+        <v>199.9125817435104</v>
       </c>
       <c r="AC5" t="n">
-        <v>166.5712119118825</v>
+        <v>180.8332055210372</v>
       </c>
       <c r="AD5" t="n">
-        <v>134585.5095300327</v>
+        <v>146108.8553397371</v>
       </c>
       <c r="AE5" t="n">
-        <v>184145.8316325428</v>
+        <v>199912.5817435104</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.138172056856286e-06</v>
+        <v>9.971024655633849e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.119791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>166571.2119118825</v>
+        <v>180833.2055210372</v>
       </c>
     </row>
   </sheetData>
@@ -17136,28 +17136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>518.6260191044489</v>
+        <v>554.671852071394</v>
       </c>
       <c r="AB2" t="n">
-        <v>709.6069995038698</v>
+        <v>758.9264983991617</v>
       </c>
       <c r="AC2" t="n">
-        <v>641.8831034108987</v>
+        <v>686.4956185519753</v>
       </c>
       <c r="AD2" t="n">
-        <v>518626.0191044489</v>
+        <v>554671.852071394</v>
       </c>
       <c r="AE2" t="n">
-        <v>709606.9995038698</v>
+        <v>758926.4983991617</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.351177217258583e-06</v>
+        <v>4.411730660040214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.568750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>641883.1034108987</v>
+        <v>686495.6185519753</v>
       </c>
     </row>
     <row r="3">
@@ -17242,28 +17242,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.3565121011356</v>
+        <v>232.3301735093842</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.0825718972142</v>
+        <v>317.8843930792601</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.8746913513305</v>
+        <v>287.5459527574176</v>
       </c>
       <c r="AD3" t="n">
-        <v>208356.5121011356</v>
+        <v>232330.1735093842</v>
       </c>
       <c r="AE3" t="n">
-        <v>285082.5718972142</v>
+        <v>317884.3930792601</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.024150197162007e-06</v>
+        <v>7.550884159266658e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.838541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>257874.6913513305</v>
+        <v>287545.9527574176</v>
       </c>
     </row>
     <row r="4">
@@ -17348,28 +17348,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.9713507985805</v>
+        <v>199.7744200062368</v>
       </c>
       <c r="AB4" t="n">
-        <v>240.7717654705986</v>
+        <v>273.3401748777977</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.7928460994496</v>
+        <v>247.2529722228856</v>
       </c>
       <c r="AD4" t="n">
-        <v>175971.3507985804</v>
+        <v>199774.4200062368</v>
       </c>
       <c r="AE4" t="n">
-        <v>240771.7654705986</v>
+        <v>273340.1748777977</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.502036567296611e-06</v>
+        <v>8.447586430648989e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.430208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>217792.8460994496</v>
+        <v>247252.9722228856</v>
       </c>
     </row>
     <row r="5">
@@ -17454,28 +17454,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.3772353494095</v>
+        <v>162.3641555620848</v>
       </c>
       <c r="AB5" t="n">
-        <v>205.752767580377</v>
+        <v>222.1538006409484</v>
       </c>
       <c r="AC5" t="n">
-        <v>186.1160122183875</v>
+        <v>200.9517537026575</v>
       </c>
       <c r="AD5" t="n">
-        <v>150377.2353494095</v>
+        <v>162364.1555620848</v>
       </c>
       <c r="AE5" t="n">
-        <v>205752.767580377</v>
+        <v>222153.8006409484</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.924913367676346e-06</v>
+        <v>9.241069172809215e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.136458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>186116.0122183874</v>
+        <v>200951.7537026575</v>
       </c>
     </row>
     <row r="6">
@@ -17560,28 +17560,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>144.7134495459798</v>
+        <v>156.7003697586552</v>
       </c>
       <c r="AB6" t="n">
-        <v>198.0033259755337</v>
+        <v>214.404359036105</v>
       </c>
       <c r="AC6" t="n">
-        <v>179.1061664438982</v>
+        <v>193.9419079281683</v>
       </c>
       <c r="AD6" t="n">
-        <v>144713.4495459798</v>
+        <v>156700.3697586552</v>
       </c>
       <c r="AE6" t="n">
-        <v>198003.3259755337</v>
+        <v>214404.359036105</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.008391501832655e-06</v>
+        <v>9.397706895051924e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.084375</v>
       </c>
       <c r="AH6" t="n">
-        <v>179106.1664438983</v>
+        <v>193941.9079281683</v>
       </c>
     </row>
     <row r="7">
@@ -17666,28 +17666,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>145.2669263919669</v>
+        <v>157.2538466046423</v>
       </c>
       <c r="AB7" t="n">
-        <v>198.760617413888</v>
+        <v>215.1616504744593</v>
       </c>
       <c r="AC7" t="n">
-        <v>179.7911830502415</v>
+        <v>194.6269245345116</v>
       </c>
       <c r="AD7" t="n">
-        <v>145266.9263919669</v>
+        <v>157253.8466046423</v>
       </c>
       <c r="AE7" t="n">
-        <v>198760.617413888</v>
+        <v>215161.6504744593</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.006612216557565e-06</v>
+        <v>9.394368257988135e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.085416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>179791.1830502415</v>
+        <v>194626.9245345116</v>
       </c>
     </row>
   </sheetData>
@@ -17963,28 +17963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.1604342239457</v>
+        <v>152.5556722590739</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.2500277937845</v>
+        <v>208.733401066032</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.9061654921169</v>
+        <v>188.8121782275179</v>
       </c>
       <c r="AD2" t="n">
-        <v>125160.4342239457</v>
+        <v>152555.6722590739</v>
       </c>
       <c r="AE2" t="n">
-        <v>171250.0277937845</v>
+        <v>208733.401066032</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.134923101392309e-06</v>
+        <v>1.034112887920453e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AH2" t="n">
-        <v>154906.1654921169</v>
+        <v>188812.1782275179</v>
       </c>
     </row>
   </sheetData>
@@ -18260,28 +18260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.9880950862514</v>
+        <v>207.5307376889164</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.4771169125529</v>
+        <v>283.9527109158205</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.1901780353698</v>
+        <v>256.8526627162309</v>
       </c>
       <c r="AD2" t="n">
-        <v>185988.0950862514</v>
+        <v>207530.7376889164</v>
       </c>
       <c r="AE2" t="n">
-        <v>254477.1169125529</v>
+        <v>283952.7109158206</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.175737770720129e-06</v>
+        <v>8.599027716687364e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.073958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>230190.1780353698</v>
+        <v>256852.6627162309</v>
       </c>
     </row>
     <row r="3">
@@ -18366,28 +18366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.7958301030234</v>
+        <v>133.6098665859173</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.014672116569</v>
+        <v>182.8109139140758</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.9795876198836</v>
+        <v>165.3636968668968</v>
       </c>
       <c r="AD3" t="n">
-        <v>122795.8301030234</v>
+        <v>133609.8665859173</v>
       </c>
       <c r="AE3" t="n">
-        <v>168014.672116569</v>
+        <v>182810.9139140758</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.220039637825648e-06</v>
+        <v>1.074954127690072e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.258333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>151979.5876198836</v>
+        <v>165363.6968668968</v>
       </c>
     </row>
     <row r="4">
@@ -18472,28 +18472,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.9519222396389</v>
+        <v>133.7659587225328</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.2282442641853</v>
+        <v>183.0244860616921</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.1727767414818</v>
+        <v>165.5568859884951</v>
       </c>
       <c r="AD4" t="n">
-        <v>122951.922239639</v>
+        <v>133765.9587225328</v>
       </c>
       <c r="AE4" t="n">
-        <v>168228.2442641853</v>
+        <v>183024.4860616921</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.234573315100454e-06</v>
+        <v>1.077947023809837e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>152172.7767414819</v>
+        <v>165556.8859884951</v>
       </c>
     </row>
   </sheetData>
@@ -18769,28 +18769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.447466531911</v>
+        <v>291.1460476636633</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.2509814894267</v>
+        <v>398.3588668705318</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.6326422035386</v>
+        <v>360.3400557165886</v>
       </c>
       <c r="AD2" t="n">
-        <v>257447.466531911</v>
+        <v>291146.0476636633</v>
       </c>
       <c r="AE2" t="n">
-        <v>352250.9814894267</v>
+        <v>398358.8668705318</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.454967771697483e-06</v>
+        <v>6.844927256008771e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.740625</v>
       </c>
       <c r="AH2" t="n">
-        <v>318632.6422035386</v>
+        <v>360340.0557165886</v>
       </c>
     </row>
     <row r="3">
@@ -18875,28 +18875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.0271387901637</v>
+        <v>166.3791612471182</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.0642853215329</v>
+        <v>227.647308548758</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.2567465119631</v>
+        <v>205.9209689259343</v>
       </c>
       <c r="AD3" t="n">
-        <v>144027.1387901636</v>
+        <v>166379.1612471183</v>
       </c>
       <c r="AE3" t="n">
-        <v>197064.2853215328</v>
+        <v>227647.308548758</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.896227820077497e-06</v>
+        <v>9.700328764806605e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.344791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>178256.7465119631</v>
+        <v>205920.9689259343</v>
       </c>
     </row>
     <row r="4">
@@ -18981,28 +18981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.6803696543657</v>
+        <v>140.9417664916901</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.4344028551599</v>
+        <v>192.8427428257443</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.5003124774615</v>
+        <v>174.4381021069992</v>
       </c>
       <c r="AD4" t="n">
-        <v>129680.3696543657</v>
+        <v>140941.7664916901</v>
       </c>
       <c r="AE4" t="n">
-        <v>177434.4028551599</v>
+        <v>192842.7428257443</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.182844714175542e-06</v>
+        <v>1.026816960156219e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.160416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>160500.3124774615</v>
+        <v>174438.1021069992</v>
       </c>
     </row>
   </sheetData>
